--- a/ocelot/data/compartments.xlsx
+++ b/ocelot/data/compartments.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$24</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -114,8 +117,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -143,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +440,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,10 +450,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -630,6 +642,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B24"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>